--- a/participants/participant_10/participant_10_task_orders.xlsx
+++ b/participants/participant_10/participant_10_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730338240697" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730361561518" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730361621509" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730362191613" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730362811584" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911437090864" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911460622582" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911460632634" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911461246421" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650291146217783" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730337880685.csv</t>
+          <t>go_stims-16502911436559818.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730338061035.csv</t>
+          <t>GNG_stims-16502911436772716.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730338071036.csv</t>
+          <t>go_stims-1650291143678296.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873033822104.csv</t>
+          <t>GNG_stims-16502911437090864.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_8-16498730343930726.csv</t>
+          <t>ZB-match_5-1650291143896254.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_3-16498730342170725.csv</t>
+          <t>TB-16502911460400543.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16498730344441037.csv</t>
+          <t>OB-16502911447956412.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1649873036137186.csv</t>
+          <t>TB-16502911449843614.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16498730348750722.csv</t>
+          <t>ZB-match_2-16502911439286165.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16498730346140716.csv</t>
+          <t>TB-16502911455180576.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16498730357661858.csv</t>
+          <t>ZB-match_0-165029114384006.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_5-16498730338851047.csv</t>
+          <t>OB-1650291144914571.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16498730344750705.csv</t>
+          <t>OB-16502911446438317.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730361871533.csv</t>
+          <t>MM_stims-165029114607745.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730361631541.csv</t>
+          <t>ZM_stims-16502911460654263.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1649873036202154.csv</t>
+          <t>MM_stims-16502911461089785.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730361881568.csv</t>
+          <t>ZM_stims-16502911460784261.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730362181501.csv</t>
+          <t>MM_stims-16502911461236389.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730362031517.csv</t>
+          <t>ZM_stims-16502911461099434.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873036235153.csv</t>
+          <t>SAT_stims-1650291146155416.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730362661514.csv</t>
+          <t>vSAT_stims-16502911461714208.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873036250171.csv</t>
+          <t>vSAT_stims-16502911462017767.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730362221522.csv</t>
+          <t>SAT_stims-16502911461292996.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_10/participant_10_task_orders.xlsx
+++ b/participants/participant_10/participant_10_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911437090864" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911460622582" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911460632634" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911461246421" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650291146217783" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504777959355574" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504777979295547" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504777979305549" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504777979925542" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504777980555944" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911436559818.csv</t>
+          <t>go_stims-16504777958945558.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911436772716.csv</t>
+          <t>GNG_stims-16504777959195557.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650291143678296.csv</t>
+          <t>go_stims-16504777959205544.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911437090864.csv</t>
+          <t>GNG_stims-16504777959345908.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-1650291143896254.csv</t>
+          <t>ZB-match_6-16504777966085901.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16502911460400543.csv</t>
+          <t>OB-16504777973905554.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502911447956412.csv</t>
+          <t>OB-16504777968235853.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502911449843614.csv</t>
+          <t>ZB-match_2-16504777960575635.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502911439286165.csv</t>
+          <t>OB-1650477797087555.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16502911455180576.csv</t>
+          <t>TB-1650477797698587.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_0-165029114384006.csv</t>
+          <t>TB-16504777974625874.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1650291144914571.csv</t>
+          <t>ZB-match_5-16504777967395873.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16502911446438317.csv</t>
+          <t>TB-16504777979105525.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-165029114607745.csv</t>
+          <t>MM_stims-16504777979455562.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911460654263.csv</t>
+          <t>ZM_stims-16504777979325566.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911461089785.csv</t>
+          <t>MM_stims-1650477797976587.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911460784261.csv</t>
+          <t>ZM_stims-1650477797946557.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911461236389.csv</t>
+          <t>MM_stims-16504777979915528.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911461099434.csv</t>
+          <t>ZM_stims-1650477797976587.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291146155416.csv</t>
+          <t>SAT_stims-16504777979955554.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911461714208.csv</t>
+          <t>vSAT_stims-1650477798039553.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911462017767.csv</t>
+          <t>SAT_stims-16504777980075576.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911461292996.csv</t>
+          <t>vSAT_stims-1650477798023555.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_10/participant_10_task_orders.xlsx
+++ b/participants/participant_10/participant_10_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504777959355574" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504777979295547" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504777979305549" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504777979925542" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504777980555944" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509960845067885" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650996086995259" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650996086995259" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509960870432591" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509960871165123" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504777958945558.csv</t>
+          <t>go_stims-16509960844747891.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777959195557.csv</t>
+          <t>GNG_stims-16509960844908254.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504777959205544.csv</t>
+          <t>go_stims-16509960844908254.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777959345908.csv</t>
+          <t>GNG_stims-16509960845067885.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_6-16504777966085901.csv</t>
+          <t>OB-16509960854992585.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16504777973905554.csv</t>
+          <t>ZB-match_8-165099608462679.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16504777968235853.csv</t>
+          <t>ZB-match_9-1650996084562824.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_2-16504777960575635.csv</t>
+          <t>OB-16509960851632621.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1650477797087555.csv</t>
+          <t>TB-16509960869792967.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650477797698587.csv</t>
+          <t>TB-16509960865792928.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16504777974625874.csv</t>
+          <t>OB-16509960860112572.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_5-16504777967395873.csv</t>
+          <t>ZB-match_3-16509960845868242.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16504777979105525.csv</t>
+          <t>TB-16509960866352944.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504777979455562.csv</t>
+          <t>MM_stims-16509960870112906.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777979325566.csv</t>
+          <t>ZM_stims-1650996086995259.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650477797976587.csv</t>
+          <t>MM_stims-1650996087027291.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477797946557.csv</t>
+          <t>ZM_stims-16509960870112906.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504777979915528.csv</t>
+          <t>MM_stims-16509960870432591.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477797976587.csv</t>
+          <t>ZM_stims-1650996087027291.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777979955554.csv</t>
+          <t>SAT_stims-165099608705926.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477798039553.csv</t>
+          <t>vSAT_stims-16509960870752938.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777980075576.csv</t>
+          <t>vSAT_stims-16509960870919669.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477798023555.csv</t>
+          <t>SAT_stims-16509960870432591.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_10/participant_10_task_orders.xlsx
+++ b/participants/participant_10/participant_10_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509960845067885" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650996086995259" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650996086995259" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509960870432591" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509960871165123" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511686746874921" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511686775216618" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511686775226195" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511686775702078" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511686776462946" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509960844747891.csv</t>
+          <t>go_stims-16511686746601162.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960844908254.csv</t>
+          <t>GNG_stims-16511686746711624.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509960844908254.csv</t>
+          <t>go_stims-16511686746726055.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960845067885.csv</t>
+          <t>GNG_stims-16511686746864629.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509960854992585.csv</t>
+          <t>TB-1651168676219393.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_8-165099608462679.csv</t>
+          <t>ZB-match_5-16511686747080488.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_9-1650996084562824.csv</t>
+          <t>ZB-match_0-165116867493402.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16509960851632621.csv</t>
+          <t>OB-16511686752069519.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509960869792967.csv</t>
+          <t>ZB-match_2-16511686751080635.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509960865792928.csv</t>
+          <t>OB-16511686754016075.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16509960860112572.csv</t>
+          <t>TB-165116867750351.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_3-16509960845868242.csv</t>
+          <t>TB-16511686762375462.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16509960866352944.csv</t>
+          <t>OB-1651168675328998.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509960870112906.csv</t>
+          <t>MM_stims-16511686775372338.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996086995259.csv</t>
+          <t>ZM_stims-16511686775247355.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650996087027291.csv</t>
+          <t>MM_stims-16511686775532942.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960870112906.csv</t>
+          <t>ZM_stims-16511686775372338.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509960870432591.csv</t>
+          <t>MM_stims-1651168677569241.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996087027291.csv</t>
+          <t>ZM_stims-16511686775542948.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-165099608705926.csv</t>
+          <t>SAT_stims-1651168677599605.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960870752938.csv</t>
+          <t>vSAT_stims-16511686776148975.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960870919669.csv</t>
+          <t>vSAT_stims-16511686776302817.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960870432591.csv</t>
+          <t>SAT_stims-16511686775722518.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_10/participant_10_task_orders.xlsx
+++ b/participants/participant_10/participant_10_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511686746874921" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511686775216618" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511686775226195" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511686775702078" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511686776462946" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555079685133" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555102144668" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555102214544" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555102794552" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651255510342451" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511686746601162.csv</t>
+          <t>go_stims-16512555079325137.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686746711624.csv</t>
+          <t>GNG_stims-16512555079515114.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511686746726055.csv</t>
+          <t>go_stims-1651255507952514.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686746864629.csv</t>
+          <t>GNG_stims-16512555079665117.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1651168676219393.csv</t>
+          <t>OB-16512555086115112.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511686747080488.csv</t>
+          <t>TB-1651255510063456.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_0-165116867493402.csv</t>
+          <t>OB-16512555093225105.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16511686752069519.csv</t>
+          <t>ZB-match_0-16512555085375116.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_2-16511686751080635.csv</t>
+          <t>ZB-match_6-16512555083385108.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16511686754016075.csv</t>
+          <t>TB-16512555101934614.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-165116867750351.csv</t>
+          <t>TB-16512555095925097.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16511686762375462.csv</t>
+          <t>ZB-match_2-1651255508196514.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-1651168675328998.csv</t>
+          <t>OB-16512555090575132.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511686775372338.csv</t>
+          <t>MM_stims-16512555102464523.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686775247355.csv</t>
+          <t>ZM_stims-1651255510223458.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511686775532942.csv</t>
+          <t>MM_stims-16512555102624516.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686775372338.csv</t>
+          <t>ZM_stims-16512555102464523.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651168677569241.csv</t>
+          <t>MM_stims-16512555102784538.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686775542948.csv</t>
+          <t>ZM_stims-16512555102634528.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168677599605.csv</t>
+          <t>SAT_stims-1651255510283453.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686776148975.csv</t>
+          <t>vSAT_stims-16512555103264523.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686776302817.csv</t>
+          <t>SAT_stims-16512555102944546.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686775722518.csv</t>
+          <t>vSAT_stims-16512555103104599.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_10/participant_10_task_orders.xlsx
+++ b/participants/participant_10/participant_10_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555079685133" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555102144668" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555102214544" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555102794552" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651255510342451" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16515889337923248" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RS_TO-16515889337951927" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NB_TO-16515889365943134" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651588936642855" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16515889367211888" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555079325137.csv</t>
+          <t>go_stims-16515889337614264.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555079515114.csv</t>
+          <t>GNG_stims-1651588933775271.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651255507952514.csv</t>
+          <t>go_stims-16515889337772381.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555079665117.csv</t>
+          <t>GNG_stims-16515889337911866.csv</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eyes closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eyes open</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16512555086115112.csv</t>
+          <t>OB-16515889356107924.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +572,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-1651255510063456.csv</t>
+          <t>TB-16515889357501245.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +582,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16512555093225105.csv</t>
+          <t>OB-16515889350314488.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-16512555085375116.csv</t>
+          <t>OB-16515889346709244.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_6-16512555083385108.csv</t>
+          <t>ZB-match_5-16515889340489855.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +612,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512555101934614.csv</t>
+          <t>ZB-match_2-16515889343476653.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +622,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16512555095925097.csv</t>
+          <t>TB-16515889365810354.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +632,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_2-1651255508196514.csv</t>
+          <t>ZB-match_6-1651588933995541.csv</t>
         </is>
       </c>
     </row>
@@ -596,53 +642,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16512555090575132.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>eyes open</t>
+          <t>TB-1651588936038056.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512555102464523.csv</t>
+          <t>MM_stims-165158893661007.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651255510223458.csv</t>
+          <t>ZM_stims-1651588936596367.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512555102624516.csv</t>
+          <t>MM_stims-16515889366267562.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555102464523.csv</t>
+          <t>ZM_stims-165158893661007.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16512555102784538.csv</t>
+          <t>MM_stims-16515889366418824.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555102634528.csv</t>
+          <t>ZM_stims-16515889366277637.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1651255510283453.csv</t>
+          <t>SAT_stims-16515889366727197.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555103264523.csv</t>
+          <t>vSAT_stims-16515889367053602.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555102944546.csv</t>
+          <t>SAT_stims-1651588936644917.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555103104599.csv</t>
+          <t>vSAT_stims-16515889366893275.csv</t>
         </is>
       </c>
     </row>
